--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,187 +46,175 @@
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
+    <t>friend</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -584,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,37 +741,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8823529411764706</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8823529411764706</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7337662337662337</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7272727272727273</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>420</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8235294117647058</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8214285714285714</v>
+        <v>0.775</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4375</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4285714285714285</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,463 +1209,247 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
+        <v>18</v>
+      </c>
+      <c r="M14">
+        <v>18</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7253521126760564</v>
+      </c>
+      <c r="L16">
+        <v>103</v>
+      </c>
+      <c r="M16">
+        <v>103</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>10</v>
       </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.4210526315789473</v>
-      </c>
-      <c r="C15">
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.7125</v>
+      </c>
+      <c r="L18">
+        <v>114</v>
+      </c>
+      <c r="M18">
+        <v>114</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="L19">
+        <v>74</v>
+      </c>
+      <c r="M19">
+        <v>74</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>11</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L15">
-        <v>43</v>
-      </c>
-      <c r="M15">
-        <v>43</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>11</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L16">
-        <v>24</v>
-      </c>
-      <c r="M16">
-        <v>24</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.369098712446352</v>
-      </c>
-      <c r="C17">
-        <v>86</v>
-      </c>
-      <c r="D17">
-        <v>86</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>147</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L17">
-        <v>17</v>
-      </c>
-      <c r="M17">
-        <v>17</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L18">
-        <v>12</v>
-      </c>
-      <c r="M18">
-        <v>12</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>18</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L19">
-        <v>27</v>
-      </c>
-      <c r="M19">
-        <v>27</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.3103448275862069</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>20</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L20">
-        <v>18</v>
-      </c>
-      <c r="M20">
-        <v>18</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.25</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>60</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>9</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>65</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22">
-        <v>0.684931506849315</v>
-      </c>
-      <c r="L22">
-        <v>50</v>
-      </c>
-      <c r="M22">
-        <v>50</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.68</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L23">
         <v>17</v>
@@ -1695,147 +1467,99 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L24">
+        <v>58</v>
+      </c>
+      <c r="M24">
+        <v>58</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L25">
         <v>29</v>
       </c>
-      <c r="B24">
-        <v>0.1</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>99</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>0.64</v>
-      </c>
-      <c r="L24">
-        <v>16</v>
-      </c>
-      <c r="M24">
-        <v>16</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
+      <c r="M25">
+        <v>29</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6031746031746031</v>
+      </c>
+      <c r="L26">
+        <v>38</v>
+      </c>
+      <c r="M26">
+        <v>38</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.6</v>
+      </c>
+      <c r="L27">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>0.03763440860215054</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>179</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="L25">
-        <v>12</v>
-      </c>
-      <c r="M25">
-        <v>12</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26">
-        <v>0.6</v>
-      </c>
-      <c r="L26">
-        <v>12</v>
-      </c>
-      <c r="M26">
-        <v>12</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27">
-        <v>0.5915492957746479</v>
-      </c>
-      <c r="L27">
-        <v>126</v>
-      </c>
       <c r="M27">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1847,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5416666666666666</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L28">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1873,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5333333333333333</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1899,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.5294117647058824</v>
+        <v>0.5535248041775457</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1925,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1951,21 +1675,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.4673913043478261</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1977,21 +1701,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4108527131782946</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="L33">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="M33">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2003,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>76</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.3714285714285714</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2029,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.36</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L35">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2055,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.35</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2081,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.2916666666666667</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2107,21 +1831,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.2368421052631579</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L38">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2133,21 +1857,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.21875</v>
+        <v>0.328125</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2159,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.01707317073170732</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2185,33 +1909,215 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>403</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.006238859180035651</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N41">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1115</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42">
+        <v>0.04066985645933014</v>
+      </c>
+      <c r="L42">
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <v>17</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43">
+        <v>0.03365384615384615</v>
+      </c>
+      <c r="L43">
+        <v>14</v>
+      </c>
+      <c r="M43">
+        <v>14</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44">
+        <v>0.02237136465324385</v>
+      </c>
+      <c r="L44">
+        <v>20</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45">
+        <v>0.01997780244173141</v>
+      </c>
+      <c r="L45">
+        <v>18</v>
+      </c>
+      <c r="M45">
+        <v>18</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46">
+        <v>0.0116767865483419</v>
+      </c>
+      <c r="L46">
+        <v>25</v>
+      </c>
+      <c r="M46">
+        <v>27</v>
+      </c>
+      <c r="N46">
+        <v>0.93</v>
+      </c>
+      <c r="O46">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47">
+        <v>0.007085346215780998</v>
+      </c>
+      <c r="L47">
+        <v>22</v>
+      </c>
+      <c r="M47">
+        <v>24</v>
+      </c>
+      <c r="N47">
+        <v>0.92</v>
+      </c>
+      <c r="O47">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48">
+        <v>0.005007824726134585</v>
+      </c>
+      <c r="L48">
+        <v>16</v>
+      </c>
+      <c r="M48">
+        <v>22</v>
+      </c>
+      <c r="N48">
+        <v>0.73</v>
+      </c>
+      <c r="O48">
+        <v>0.27</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>3179</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,36 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -79,64 +82,64 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>nice</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>healthy</t>
@@ -145,54 +148,51 @@
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>increase</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -572,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -691,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6153846153846154</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5924657534246576</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C6">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L6">
         <v>24</v>
       </c>
-      <c r="K6">
-        <v>0.8787878787878788</v>
-      </c>
-      <c r="L6">
-        <v>29</v>
-      </c>
       <c r="M6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5600000000000001</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8125</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4827586206896552</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>0.8055555555555556</v>
@@ -991,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2222222222222222</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0.8048780487804879</v>
@@ -1041,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.186046511627907</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C11">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>420</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.7758620689655172</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1733333333333333</v>
+        <v>0.1996124031007752</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.775</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1140939597315436</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,31 +1156,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="L13">
+        <v>89</v>
+      </c>
+      <c r="M13">
+        <v>89</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="L13">
-        <v>17</v>
-      </c>
-      <c r="M13">
-        <v>17</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.05158730158730158</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,21 +1230,45 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>236</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7407407407407407</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,21 +1280,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7253521126760564</v>
+        <v>0.70625</v>
       </c>
       <c r="L16">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1285,21 +1306,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1311,21 +1332,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.7125</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L18">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1337,21 +1358,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.6981132075471698</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L19">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1363,21 +1384,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1389,21 +1410,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1420,16 +1441,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L22">
         <v>40</v>
       </c>
-      <c r="K22">
-        <v>0.6521739130434783</v>
-      </c>
-      <c r="L22">
-        <v>15</v>
-      </c>
       <c r="M22">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1441,12 +1462,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>0.6296296296296297</v>
@@ -1472,7 +1493,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>0.6170212765957447</v>
@@ -1498,16 +1519,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.6041666666666666</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1519,21 +1540,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6031746031746031</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1545,21 +1566,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1571,21 +1592,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.574468085106383</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1597,21 +1618,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.5588235294117647</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1623,21 +1644,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5535248041775457</v>
+        <v>0.4542372881355932</v>
       </c>
       <c r="L30">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="M30">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1649,21 +1670,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.525</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1675,21 +1696,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5056179775280899</v>
+        <v>0.4294117647058823</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1701,47 +1722,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="L33">
+        <v>38</v>
+      </c>
+      <c r="M33">
+        <v>38</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>51</v>
-      </c>
-      <c r="K33">
-        <v>0.4941176470588236</v>
-      </c>
-      <c r="L33">
-        <v>168</v>
-      </c>
-      <c r="M33">
-        <v>168</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>172</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4338983050847458</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L34">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1753,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>167</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.3561643835616438</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1779,21 +1800,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.3430962343096234</v>
+        <v>0.375</v>
       </c>
       <c r="L36">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1805,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.3384615384615385</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1831,21 +1852,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.3333333333333333</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1857,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.328125</v>
+        <v>0.25</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1883,21 +1904,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.3255813953488372</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1909,21 +1930,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.2142857142857143</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1935,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>55</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.04066985645933014</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1961,21 +1982,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.03365384615384615</v>
+        <v>0.02572706935123042</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1987,21 +2008,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>402</v>
+        <v>871</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.02237136465324385</v>
+        <v>0.01664816870144284</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2013,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>874</v>
+        <v>886</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.01997780244173141</v>
+        <v>0.01026598226784881</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2039,85 +2060,33 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>883</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.0116767865483419</v>
+        <v>0.00676328502415459</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N46">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O46">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K47">
-        <v>0.007085346215780998</v>
-      </c>
-      <c r="L47">
-        <v>22</v>
-      </c>
-      <c r="M47">
-        <v>24</v>
-      </c>
-      <c r="N47">
-        <v>0.92</v>
-      </c>
-      <c r="O47">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K48">
-        <v>0.005007824726134585</v>
-      </c>
-      <c r="L48">
-        <v>16</v>
-      </c>
-      <c r="M48">
-        <v>22</v>
-      </c>
-      <c r="N48">
-        <v>0.73</v>
-      </c>
-      <c r="O48">
-        <v>0.27</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>3179</v>
+        <v>3084</v>
       </c>
     </row>
   </sheetData>
